--- a/public/My Book Library.xlsx
+++ b/public/My Book Library.xlsx
@@ -1,40 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr showInkAnnotation="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\102796\Documents\qprop\qprop\content\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brian\Downloads\Projects\qprop_blog\content\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE403552-F404-4506-AD13-09F3343EC24F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10452"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Library" sheetId="2" r:id="rId1"/>
-    <sheet name="Borrowers List" sheetId="1" r:id="rId2"/>
-    <sheet name="Buying List" sheetId="3" r:id="rId3"/>
+    <sheet name="Buying List" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Library!$A$1:$D$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="175">
   <si>
     <t>Book Name</t>
   </si>
@@ -459,63 +449,6 @@
     <t>Book</t>
   </si>
   <si>
-    <t>Borrower</t>
-  </si>
-  <si>
-    <t>Return</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Jenny</t>
-  </si>
-  <si>
-    <t>RETURNED</t>
-  </si>
-  <si>
-    <t>Cess</t>
-  </si>
-  <si>
-    <t>Bicko</t>
-  </si>
-  <si>
-    <t>LOST</t>
-  </si>
-  <si>
-    <t>Alba</t>
-  </si>
-  <si>
-    <t>Rehena</t>
-  </si>
-  <si>
-    <t>Jackie</t>
-  </si>
-  <si>
-    <t>Rehema</t>
-  </si>
-  <si>
-    <t>Faiza</t>
-  </si>
-  <si>
-    <t>Froggie</t>
-  </si>
-  <si>
-    <t>Alex</t>
-  </si>
-  <si>
-    <t>jackie</t>
-  </si>
-  <si>
-    <t>Joan</t>
-  </si>
-  <si>
-    <t>Tabby</t>
-  </si>
-  <si>
-    <t>Peris</t>
-  </si>
-  <si>
     <t>Blockchain Revolution</t>
   </si>
   <si>
@@ -610,12 +543,18 @@
   </si>
   <si>
     <t>Russia</t>
+  </si>
+  <si>
+    <t>American Dirt</t>
+  </si>
+  <si>
+    <t>Jeanine Cummins</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
   </numFmts>
@@ -656,9 +595,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -975,792 +913,792 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D72"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D73"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A44" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A73" sqref="A73"/>
+      <selection activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.88671875" customWidth="1"/>
+    <col min="1" max="1" width="40.85546875" customWidth="1"/>
     <col min="2" max="2" width="34" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <v>41079</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>41090</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>41112</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>41594</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>41720</v>
       </c>
       <c r="D6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>17</v>
       </c>
       <c r="B7" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>41819</v>
       </c>
       <c r="D7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>20</v>
       </c>
       <c r="B8" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>41933</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>23</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>41936</v>
       </c>
       <c r="D9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>25</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>42043</v>
       </c>
       <c r="D10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>27</v>
       </c>
       <c r="B11" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <v>42064</v>
       </c>
       <c r="D11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>29</v>
       </c>
       <c r="B12" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <v>42098</v>
       </c>
       <c r="D12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>31</v>
       </c>
       <c r="B13" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <v>42192</v>
       </c>
       <c r="D13" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>33</v>
       </c>
       <c r="B14" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="3">
         <v>42315</v>
       </c>
       <c r="D14" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>35</v>
       </c>
       <c r="B15" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="3">
         <v>42376</v>
       </c>
       <c r="D15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>37</v>
       </c>
       <c r="B16" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="3">
         <v>42430</v>
       </c>
       <c r="D16" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>39</v>
       </c>
       <c r="B17" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="3">
         <v>42430</v>
       </c>
       <c r="D17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>41</v>
       </c>
       <c r="B18" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="3">
         <v>42542</v>
       </c>
       <c r="D18" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>43</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="3">
         <v>42542</v>
       </c>
       <c r="D19" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>45</v>
       </c>
       <c r="B20" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="3">
         <v>42580</v>
       </c>
       <c r="D20" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>47</v>
       </c>
       <c r="B21" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="3">
         <v>42628</v>
       </c>
       <c r="D21" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>49</v>
       </c>
       <c r="B22" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="3">
         <v>42938</v>
       </c>
       <c r="D22" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>51</v>
       </c>
       <c r="B23" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="3">
         <v>42949</v>
       </c>
       <c r="D23" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>53</v>
       </c>
       <c r="B24" t="s">
         <v>54</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="3">
         <v>43020</v>
       </c>
       <c r="D24" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>55</v>
       </c>
       <c r="B25" t="s">
         <v>56</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="3">
         <v>43100</v>
       </c>
       <c r="D25" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>57</v>
       </c>
       <c r="B26" t="s">
         <v>58</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="3">
         <v>43105</v>
       </c>
       <c r="D26" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>60</v>
       </c>
       <c r="B27" t="s">
         <v>61</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="3">
         <v>43105</v>
       </c>
       <c r="D27" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>62</v>
       </c>
       <c r="B28" t="s">
         <v>63</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="3">
         <v>43163</v>
       </c>
       <c r="D28" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>64</v>
       </c>
       <c r="B29" t="s">
         <v>65</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29" s="3">
         <v>43163</v>
       </c>
       <c r="D29" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>66</v>
       </c>
       <c r="B30" t="s">
         <v>67</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30" s="3">
         <v>43188</v>
       </c>
       <c r="D30" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>68</v>
       </c>
       <c r="B31" t="s">
         <v>46</v>
       </c>
-      <c r="C31" s="4">
+      <c r="C31" s="3">
         <v>43188</v>
       </c>
       <c r="D31" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>69</v>
       </c>
       <c r="B32" t="s">
         <v>70</v>
       </c>
-      <c r="C32" s="4">
+      <c r="C32" s="3">
         <v>43188</v>
       </c>
       <c r="D32" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>71</v>
       </c>
       <c r="B33" t="s">
         <v>72</v>
       </c>
-      <c r="C33" s="4">
+      <c r="C33" s="3">
         <v>43221</v>
       </c>
       <c r="D33" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>74</v>
       </c>
       <c r="B34" t="s">
         <v>75</v>
       </c>
-      <c r="C34" s="4">
+      <c r="C34" s="3">
         <v>43285</v>
       </c>
       <c r="D34" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>77</v>
       </c>
       <c r="B35" t="s">
         <v>78</v>
       </c>
-      <c r="C35" s="4">
+      <c r="C35" s="3">
         <v>43285</v>
       </c>
       <c r="D35" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>79</v>
       </c>
       <c r="B36" t="s">
         <v>80</v>
       </c>
-      <c r="C36" s="4">
+      <c r="C36" s="3">
         <v>43285</v>
       </c>
       <c r="D36" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>81</v>
       </c>
       <c r="B37" t="s">
         <v>82</v>
       </c>
-      <c r="C37" s="4">
+      <c r="C37" s="3">
         <v>43333</v>
       </c>
       <c r="D37" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>83</v>
       </c>
       <c r="B38" t="s">
         <v>84</v>
       </c>
-      <c r="C38" s="4">
+      <c r="C38" s="3">
         <v>43333</v>
       </c>
       <c r="D38" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>85</v>
       </c>
       <c r="B39" t="s">
         <v>86</v>
       </c>
-      <c r="C39" s="4">
+      <c r="C39" s="3">
         <v>43333</v>
       </c>
       <c r="D39" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>87</v>
       </c>
       <c r="B40" t="s">
         <v>88</v>
       </c>
-      <c r="C40" s="4">
+      <c r="C40" s="3">
         <v>43374</v>
       </c>
       <c r="D40" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>89</v>
       </c>
       <c r="B41" t="s">
         <v>90</v>
       </c>
-      <c r="C41" s="4">
+      <c r="C41" s="3">
         <v>43391</v>
       </c>
       <c r="D41" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>91</v>
       </c>
       <c r="B42" t="s">
         <v>92</v>
       </c>
-      <c r="C42" s="4">
+      <c r="C42" s="3">
         <v>43427</v>
       </c>
       <c r="D42" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>93</v>
       </c>
       <c r="B43" t="s">
         <v>94</v>
       </c>
-      <c r="C43" s="4">
+      <c r="C43" s="3">
         <v>43427</v>
       </c>
       <c r="D43" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>95</v>
       </c>
       <c r="B44" t="s">
         <v>96</v>
       </c>
-      <c r="C44" s="4">
+      <c r="C44" s="3">
         <v>43458</v>
       </c>
       <c r="D44" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>97</v>
       </c>
       <c r="B45" t="s">
         <v>72</v>
       </c>
-      <c r="C45" s="4">
+      <c r="C45" s="3">
         <v>43458</v>
       </c>
       <c r="D45" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>98</v>
       </c>
       <c r="B46" t="s">
         <v>99</v>
       </c>
-      <c r="C46" s="4">
+      <c r="C46" s="3">
         <v>43458</v>
       </c>
       <c r="D46" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>100</v>
       </c>
       <c r="B47" t="s">
         <v>101</v>
       </c>
-      <c r="C47" s="4">
+      <c r="C47" s="3">
         <v>43458</v>
       </c>
       <c r="D47" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>102</v>
       </c>
       <c r="B48" t="s">
         <v>103</v>
       </c>
-      <c r="C48" s="4">
+      <c r="C48" s="3">
         <v>43503</v>
       </c>
       <c r="D48" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>104</v>
       </c>
       <c r="B49" t="s">
         <v>24</v>
       </c>
-      <c r="C49" s="4">
+      <c r="C49" s="3">
         <v>43503</v>
       </c>
       <c r="D49" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>105</v>
       </c>
       <c r="B50" t="s">
         <v>106</v>
       </c>
-      <c r="C50" s="4">
+      <c r="C50" s="3">
         <v>43536</v>
       </c>
       <c r="D50" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>107</v>
       </c>
       <c r="B51" t="s">
         <v>108</v>
       </c>
-      <c r="C51" s="4">
+      <c r="C51" s="3">
         <v>43560</v>
       </c>
       <c r="D51" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>109</v>
       </c>
       <c r="B52" t="s">
         <v>110</v>
       </c>
-      <c r="C52" s="4">
+      <c r="C52" s="3">
         <v>43560</v>
       </c>
       <c r="D52" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>111</v>
       </c>
       <c r="B53" t="s">
         <v>112</v>
       </c>
-      <c r="C53" s="4">
+      <c r="C53" s="3">
         <v>43560</v>
       </c>
       <c r="D53" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>113</v>
       </c>
       <c r="B54" t="s">
         <v>114</v>
       </c>
-      <c r="C54" s="4">
+      <c r="C54" s="3">
         <v>43577</v>
       </c>
       <c r="D54" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>115</v>
       </c>
       <c r="B55" t="s">
         <v>116</v>
       </c>
-      <c r="C55" s="4">
+      <c r="C55" s="3">
         <v>43578</v>
       </c>
       <c r="D55" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>117</v>
       </c>
@@ -1771,233 +1709,247 @@
         <v>22</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>119</v>
       </c>
       <c r="B57" t="s">
         <v>120</v>
       </c>
-      <c r="C57" s="4">
+      <c r="C57" s="3">
         <v>43605</v>
       </c>
       <c r="D57" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>121</v>
       </c>
       <c r="B58" t="s">
         <v>72</v>
       </c>
-      <c r="C58" s="4">
+      <c r="C58" s="3">
         <v>43630</v>
       </c>
       <c r="D58" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>122</v>
       </c>
       <c r="B59" t="s">
         <v>123</v>
       </c>
-      <c r="C59" s="4">
+      <c r="C59" s="3">
         <v>43630</v>
       </c>
       <c r="D59" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>124</v>
       </c>
       <c r="B60" t="s">
         <v>125</v>
       </c>
-      <c r="C60" s="4">
+      <c r="C60" s="3">
         <v>43879</v>
       </c>
       <c r="D60" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>126</v>
       </c>
       <c r="B61" t="s">
         <v>127</v>
       </c>
-      <c r="C61" s="4">
+      <c r="C61" s="3">
         <v>43860</v>
       </c>
       <c r="D61" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>128</v>
       </c>
       <c r="B62" t="s">
         <v>129</v>
       </c>
-      <c r="C62" s="4">
+      <c r="C62" s="3">
         <v>43860</v>
       </c>
       <c r="D62" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>130</v>
       </c>
       <c r="B63" t="s">
         <v>131</v>
       </c>
-      <c r="C63" s="4">
+      <c r="C63" s="3">
         <v>43831</v>
       </c>
       <c r="D63" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>132</v>
       </c>
       <c r="B64" t="s">
         <v>133</v>
       </c>
-      <c r="C64" s="4">
+      <c r="C64" s="3">
         <v>43889</v>
       </c>
       <c r="D64" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>134</v>
       </c>
       <c r="B65" t="s">
         <v>135</v>
       </c>
-      <c r="C65" s="4">
+      <c r="C65" s="3">
         <v>43889</v>
       </c>
       <c r="D65" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>136</v>
       </c>
       <c r="B66" t="s">
         <v>137</v>
       </c>
-      <c r="C66" s="4">
+      <c r="C66" s="3">
         <v>43889</v>
       </c>
       <c r="D66" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>138</v>
       </c>
       <c r="B67" t="s">
         <v>139</v>
       </c>
-      <c r="C67" s="4">
+      <c r="C67" s="3">
         <v>43889</v>
       </c>
       <c r="D67" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="B68" t="s">
-        <v>184</v>
-      </c>
-      <c r="C68" s="4">
+        <v>165</v>
+      </c>
+      <c r="C68" s="3">
         <v>43920</v>
       </c>
       <c r="D68" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="B69" t="s">
         <v>86</v>
       </c>
-      <c r="C69" s="4">
+      <c r="C69" s="3">
         <v>43920</v>
       </c>
       <c r="D69" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="B70" t="s">
-        <v>187</v>
-      </c>
-      <c r="C70" s="4">
+        <v>168</v>
+      </c>
+      <c r="C70" s="3">
         <v>43920</v>
       </c>
       <c r="D70" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="B71" t="s">
-        <v>189</v>
-      </c>
-      <c r="C71" s="4">
+        <v>170</v>
+      </c>
+      <c r="C71" s="3">
         <v>43920</v>
       </c>
       <c r="D71" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="B72" t="s">
-        <v>190</v>
-      </c>
-      <c r="C72" s="4">
+        <v>171</v>
+      </c>
+      <c r="C72" s="3">
         <v>43920</v>
       </c>
       <c r="D72" t="s">
         <v>76</v>
       </c>
     </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>173</v>
+      </c>
+      <c r="B73" t="s">
+        <v>174</v>
+      </c>
+      <c r="C73" s="3">
+        <v>43981</v>
+      </c>
+      <c r="D73" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D56">
-    <sortState ref="A2:D56">
+  <autoFilter ref="A1:D56" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D56">
       <sortCondition ref="C1:C56"/>
     </sortState>
   </autoFilter>
@@ -2006,381 +1958,121 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E19"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="44.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" customWidth="1"/>
-    <col min="5" max="5" width="13.88671875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>142</v>
-      </c>
-      <c r="E1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C2" s="1">
-        <v>43241</v>
-      </c>
-      <c r="D2" s="1">
-        <v>43271</v>
-      </c>
-      <c r="E2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B3" t="s">
-        <v>146</v>
-      </c>
-      <c r="D3" s="1">
-        <v>43240</v>
-      </c>
-      <c r="E3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B4" t="s">
-        <v>147</v>
-      </c>
-      <c r="E4" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" t="s">
-        <v>149</v>
-      </c>
-      <c r="E5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>64</v>
-      </c>
-      <c r="B6" t="s">
-        <v>150</v>
-      </c>
-      <c r="C6" s="1">
-        <v>43188</v>
-      </c>
-      <c r="D6" s="1">
-        <v>43307</v>
-      </c>
-      <c r="E6" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7" t="s">
-        <v>151</v>
-      </c>
-      <c r="C7" s="1">
-        <v>43254</v>
-      </c>
-      <c r="D7" s="1">
-        <v>43307</v>
-      </c>
-      <c r="E7" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B8" t="s">
-        <v>151</v>
-      </c>
-      <c r="C8" s="1">
-        <v>43254</v>
-      </c>
-      <c r="D8" s="1">
-        <v>43390</v>
-      </c>
-      <c r="E8" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B9" t="s">
-        <v>152</v>
-      </c>
-      <c r="C9" s="1">
-        <v>43307</v>
-      </c>
-      <c r="E9" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>62</v>
-      </c>
-      <c r="B10" t="s">
-        <v>153</v>
-      </c>
-      <c r="E10" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>60</v>
-      </c>
-      <c r="B11" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" t="s">
-        <v>155</v>
-      </c>
-      <c r="E12" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>62</v>
-      </c>
-      <c r="B13" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>87</v>
-      </c>
-      <c r="B14" t="s">
-        <v>156</v>
-      </c>
-      <c r="C14" s="1">
-        <v>43390</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>69</v>
-      </c>
-      <c r="B15" t="s">
-        <v>157</v>
-      </c>
-      <c r="C15" s="1">
-        <v>43389</v>
-      </c>
-      <c r="E15" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" t="s">
-        <v>153</v>
-      </c>
-      <c r="E16" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" t="s">
-        <v>159</v>
-      </c>
-      <c r="C18" s="1">
-        <v>43102</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" t="s">
-        <v>159</v>
-      </c>
-      <c r="C19" s="1">
-        <v>43102</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="33.109375" customWidth="1"/>
-    <col min="3" max="3" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.140625" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="C2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="C3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="C4" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="C5" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="C6" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="C7" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="C8" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="C9" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="C10" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="C11" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="C12" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="C13" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>

--- a/public/My Book Library.xlsx
+++ b/public/My Book Library.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brian\Downloads\Projects\qprop_blog\content\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\qprop_blog\content\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE403552-F404-4506-AD13-09F3343EC24F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F82F1D27-4087-4A4F-8FEF-07B629AF07B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Library" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="177">
   <si>
     <t>Book Name</t>
   </si>
@@ -549,6 +549,12 @@
   </si>
   <si>
     <t>Jeanine Cummins</t>
+  </si>
+  <si>
+    <t>Walking the Nile</t>
+  </si>
+  <si>
+    <t>Levison Wood</t>
   </si>
 </sst>
 </file>
@@ -914,10 +920,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D73"/>
+  <dimension ref="A1:D74"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A44" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B77" sqref="B77"/>
+      <selection activeCell="G56" sqref="G56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1945,6 +1951,20 @@
       </c>
       <c r="D73" t="s">
         <v>42</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>175</v>
+      </c>
+      <c r="B74" t="s">
+        <v>176</v>
+      </c>
+      <c r="C74" s="3">
+        <v>45047</v>
+      </c>
+      <c r="D74" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/public/My Book Library.xlsx
+++ b/public/My Book Library.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\qprop_blog\content\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F82F1D27-4087-4A4F-8FEF-07B629AF07B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{417092C1-6B03-418F-BDF2-A1FAA323EC56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="179">
   <si>
     <t>Book Name</t>
   </si>
@@ -555,6 +555,12 @@
   </si>
   <si>
     <t>Levison Wood</t>
+  </si>
+  <si>
+    <t>How Google Works</t>
+  </si>
+  <si>
+    <t>Eric Schmidt &amp; Jonathan Rosenberg</t>
   </si>
 </sst>
 </file>
@@ -920,10 +926,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D74"/>
+  <dimension ref="A1:D75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A44" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G56" sqref="G56"/>
+      <selection activeCell="A83" sqref="A83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1965,6 +1971,20 @@
       </c>
       <c r="D74" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>177</v>
+      </c>
+      <c r="B75" t="s">
+        <v>178</v>
+      </c>
+      <c r="C75" s="3">
+        <v>45047</v>
+      </c>
+      <c r="D75" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/public/My Book Library.xlsx
+++ b/public/My Book Library.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\qprop_blog\content\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{417092C1-6B03-418F-BDF2-A1FAA323EC56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2682A3FB-179C-40B0-92C3-5F4548676DCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Library" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="193">
   <si>
     <t>Book Name</t>
   </si>
@@ -561,6 +561,48 @@
   </si>
   <si>
     <t>Eric Schmidt &amp; Jonathan Rosenberg</t>
+  </si>
+  <si>
+    <t>Essentialism</t>
+  </si>
+  <si>
+    <t>Greg McKeown</t>
+  </si>
+  <si>
+    <t>Selfhelp</t>
+  </si>
+  <si>
+    <t>The Good Success</t>
+  </si>
+  <si>
+    <t>Dr Emmanuel Mango</t>
+  </si>
+  <si>
+    <t>Failing Forward</t>
+  </si>
+  <si>
+    <t>The Prize: The Epic Quest for Oil, Money &amp; Power</t>
+  </si>
+  <si>
+    <t>Daniel Yergin</t>
+  </si>
+  <si>
+    <t>Why (Not) Me: Memoir</t>
+  </si>
+  <si>
+    <t>John C Gichinga</t>
+  </si>
+  <si>
+    <t>One Night at the Call Centre</t>
+  </si>
+  <si>
+    <t>Chetan Bhagat</t>
+  </si>
+  <si>
+    <t>The flame trees of Thika</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Elspeth Huxley</t>
   </si>
 </sst>
 </file>
@@ -630,9 +672,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -670,7 +712,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -776,7 +818,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -918,7 +960,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -926,10 +968,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D75"/>
+  <dimension ref="A1:D82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A83" sqref="A83"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1985,6 +2027,104 @@
       </c>
       <c r="D75" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>179</v>
+      </c>
+      <c r="B76" t="s">
+        <v>180</v>
+      </c>
+      <c r="C76" s="3">
+        <v>45540</v>
+      </c>
+      <c r="D76" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>182</v>
+      </c>
+      <c r="B77" t="s">
+        <v>183</v>
+      </c>
+      <c r="C77" s="3">
+        <v>45447</v>
+      </c>
+      <c r="D77" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>184</v>
+      </c>
+      <c r="B78" t="s">
+        <v>106</v>
+      </c>
+      <c r="C78" s="3">
+        <v>45494</v>
+      </c>
+      <c r="D78" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>185</v>
+      </c>
+      <c r="B79" t="s">
+        <v>186</v>
+      </c>
+      <c r="C79" s="3">
+        <v>45272</v>
+      </c>
+      <c r="D79" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>187</v>
+      </c>
+      <c r="B80" t="s">
+        <v>188</v>
+      </c>
+      <c r="C80" s="3">
+        <v>45303</v>
+      </c>
+      <c r="D80" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>189</v>
+      </c>
+      <c r="B81" t="s">
+        <v>190</v>
+      </c>
+      <c r="C81" s="3">
+        <v>44573</v>
+      </c>
+      <c r="D81" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>191</v>
+      </c>
+      <c r="B82" t="s">
+        <v>192</v>
+      </c>
+      <c r="C82" s="3">
+        <v>44573</v>
+      </c>
+      <c r="D82" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
